--- a/src/test/resources/Test Data/swaglab.xlsx
+++ b/src/test/resources/Test Data/swaglab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitf\eclipse-workspace\Jobinterview\Walmart\src\test\resources\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF54806A-7EA6-445F-95BA-4FBA50A8D1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555C2DB6-28C9-4400-B6A3-13B0438350FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B67CC511-F9FB-4F3B-993E-3F3FD4243460}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>password</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>invalidpasswordc</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>amit</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>steffi</t>
+  </si>
+  <si>
+    <t>zipcode</t>
   </si>
 </sst>
 </file>
@@ -428,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800B5206-DC01-40C5-8B8D-6E1C6DE3B696}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +501,30 @@
       </c>
       <c r="B6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>75028</v>
       </c>
     </row>
   </sheetData>
